--- a/poc/social-buzz/doc/분석결과_20110926.xlsx
+++ b/poc/social-buzz/doc/분석결과_20110926.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="18315" windowHeight="8040" tabRatio="754" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="18315" windowHeight="7980" tabRatio="754" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="회귀분석" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="성별연령대별상관분석" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">인기도결과!$A$1:$O$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">키워드분석결과!$A$1:$G$1982</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="1427">
   <si>
     <t>program_id</t>
   </si>
@@ -4345,6 +4346,39 @@
   <si>
     <t>peason</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>THE BIG BANG THEORY</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>NCIS</t>
+  </si>
+  <si>
+    <t>BIG BROTHER 13</t>
+  </si>
+  <si>
+    <t>AMERICA'S GOT TALENT</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>TUE,WED</t>
+  </si>
+  <si>
+    <t>CRIMINAL MINDS</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>60 MINUTES</t>
   </si>
 </sst>
 </file>
@@ -4670,9 +4704,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4680,6 +4711,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4693,18 +4754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4720,21 +4769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4774,11 +4808,7 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -4880,11 +4910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77616640"/>
-        <c:axId val="77618176"/>
+        <c:axId val="114240512"/>
+        <c:axId val="114250496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77616640"/>
+        <c:axId val="114240512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,7 +4923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77618176"/>
+        <c:crossAx val="114250496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4901,7 +4931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77618176"/>
+        <c:axId val="114250496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,7 +4942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77616640"/>
+        <c:crossAx val="114240512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4929,7 +4959,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -5008,103 +5038,97 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>미투데이_일별!$A$4:$A$36</c:f>
+              <c:f>미투데이_일별!$A$4:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2011-08-14</c:v>
+                  <c:v>2011-08-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2011-08-15</c:v>
+                  <c:v>2011-08-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011-08-16</c:v>
+                  <c:v>2011-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2011-08-17</c:v>
+                  <c:v>2011-08-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011-08-18</c:v>
+                  <c:v>2011-08-19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011-08-19</c:v>
+                  <c:v>2011-08-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011-08-20</c:v>
+                  <c:v>2011-08-21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011-08-21</c:v>
+                  <c:v>2011-08-22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2011-08-22</c:v>
+                  <c:v>2011-08-23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2011-08-23</c:v>
+                  <c:v>2011-08-24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2011-08-24</c:v>
+                  <c:v>2011-08-25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2011-08-25</c:v>
+                  <c:v>2011-08-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011-08-26</c:v>
+                  <c:v>2011-08-27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2011-08-27</c:v>
+                  <c:v>2011-08-28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2011-08-28</c:v>
+                  <c:v>2011-09-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011-09-04</c:v>
+                  <c:v>2011-09-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011-09-05</c:v>
+                  <c:v>2011-09-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2011-09-06</c:v>
+                  <c:v>2011-09-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2011-09-07</c:v>
+                  <c:v>2011-09-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2011-09-08</c:v>
+                  <c:v>2011-09-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011-09-09</c:v>
+                  <c:v>2011-09-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2011-09-10</c:v>
+                  <c:v>2011-09-18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2011-09-11</c:v>
+                  <c:v>2011-09-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2011-09-18</c:v>
+                  <c:v>2011-09-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2011-09-19</c:v>
+                  <c:v>2011-09-21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2011-09-20</c:v>
+                  <c:v>2011-09-22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2011-09-21</c:v>
+                  <c:v>2011-09-23</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2011-09-22</c:v>
+                  <c:v>2011-09-24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2011-09-23</c:v>
+                  <c:v>2011-09-25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2011-09-24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2011-09-25</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>2011-09-26</c:v>
                 </c:pt>
               </c:strCache>
@@ -5112,105 +5136,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>미투데이_일별!$B$4:$B$36</c:f>
+              <c:f>미투데이_일별!$B$4:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>281</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>318</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>251</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>157</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>33</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,103 +5254,97 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>미투데이_일별!$A$4:$A$36</c:f>
+              <c:f>미투데이_일별!$A$4:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2011-08-14</c:v>
+                  <c:v>2011-08-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2011-08-15</c:v>
+                  <c:v>2011-08-16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011-08-16</c:v>
+                  <c:v>2011-08-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2011-08-17</c:v>
+                  <c:v>2011-08-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011-08-18</c:v>
+                  <c:v>2011-08-19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011-08-19</c:v>
+                  <c:v>2011-08-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011-08-20</c:v>
+                  <c:v>2011-08-21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011-08-21</c:v>
+                  <c:v>2011-08-22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2011-08-22</c:v>
+                  <c:v>2011-08-23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2011-08-23</c:v>
+                  <c:v>2011-08-24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2011-08-24</c:v>
+                  <c:v>2011-08-25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2011-08-25</c:v>
+                  <c:v>2011-08-26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2011-08-26</c:v>
+                  <c:v>2011-08-27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2011-08-27</c:v>
+                  <c:v>2011-08-28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2011-08-28</c:v>
+                  <c:v>2011-09-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2011-09-04</c:v>
+                  <c:v>2011-09-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2011-09-05</c:v>
+                  <c:v>2011-09-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2011-09-06</c:v>
+                  <c:v>2011-09-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2011-09-07</c:v>
+                  <c:v>2011-09-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2011-09-08</c:v>
+                  <c:v>2011-09-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011-09-09</c:v>
+                  <c:v>2011-09-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2011-09-10</c:v>
+                  <c:v>2011-09-18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2011-09-11</c:v>
+                  <c:v>2011-09-19</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2011-09-18</c:v>
+                  <c:v>2011-09-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2011-09-19</c:v>
+                  <c:v>2011-09-21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2011-09-20</c:v>
+                  <c:v>2011-09-22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2011-09-21</c:v>
+                  <c:v>2011-09-23</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2011-09-22</c:v>
+                  <c:v>2011-09-24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2011-09-23</c:v>
+                  <c:v>2011-09-25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2011-09-24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2011-09-25</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>2011-09-26</c:v>
                 </c:pt>
               </c:strCache>
@@ -5340,105 +5352,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>미투데이_일별!$C$4:$C$36</c:f>
+              <c:f>미투데이_일별!$C$4:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>243</c:v>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>344</c:v>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,11 +5461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78800384"/>
-        <c:axId val="78801920"/>
+        <c:axId val="115739648"/>
+        <c:axId val="115761920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78800384"/>
+        <c:axId val="115739648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5468,7 +5474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78801920"/>
+        <c:crossAx val="115761920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5476,7 +5482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78801920"/>
+        <c:axId val="115761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,7 +5493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78800384"/>
+        <c:crossAx val="115739648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5525,15 +5531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11815,7 +11821,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="59">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -11926,8 +11932,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:C36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="80">
+  <location ref="A3:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
       <items count="28">
@@ -12005,10 +12011,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="33">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="31">
     <i>
       <x v="1"/>
     </i>
@@ -12050,9 +12053,6 @@
     </i>
     <i>
       <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
@@ -12118,7 +12118,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="23" hier="-1"/>
+    <pageField fld="0" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="합계 : post_count" fld="2" baseField="0" baseItem="0"/>
@@ -64188,7 +64188,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -76307,16 +76307,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -76326,7 +76326,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -76342,189 +76342,189 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>40769</v>
+        <v>40770</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>40770</v>
+        <v>40771</v>
       </c>
       <c r="B5" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>40771</v>
+        <v>40772</v>
       </c>
       <c r="B6" s="9">
         <v>54</v>
       </c>
       <c r="C6" s="9">
-        <v>243</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>40772</v>
+        <v>40773</v>
       </c>
       <c r="B7" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>40773</v>
+        <v>40774</v>
       </c>
       <c r="B8" s="9">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="C8" s="9">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>40774</v>
+        <v>40775</v>
       </c>
       <c r="B9" s="9">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="C9" s="9">
-        <v>344</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>40775</v>
+        <v>40776</v>
       </c>
       <c r="B10" s="9">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="C10" s="9">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>40776</v>
+        <v>40777</v>
       </c>
       <c r="B11" s="9">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="C11" s="9">
-        <v>1140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>40777</v>
+        <v>40778</v>
       </c>
       <c r="B12" s="9">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>40778</v>
+        <v>40779</v>
       </c>
       <c r="B13" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>40779</v>
+        <v>40780</v>
       </c>
       <c r="B14" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>40780</v>
+        <v>40781</v>
       </c>
       <c r="B15" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C15" s="9">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>40781</v>
+        <v>40782</v>
       </c>
       <c r="B16" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>40782</v>
+        <v>40783</v>
       </c>
       <c r="B17" s="9">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C17" s="9">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>40783</v>
+        <v>40791</v>
       </c>
       <c r="B18" s="9">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="C18" s="9">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>40790</v>
+        <v>40792</v>
       </c>
       <c r="B19" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>40791</v>
+        <v>40793</v>
       </c>
       <c r="B20" s="9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C20" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f>25040/1390</f>
@@ -76533,178 +76533,156 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>40792</v>
+        <v>40794</v>
       </c>
       <c r="B21" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>40793</v>
+        <v>40795</v>
       </c>
       <c r="B22" s="9">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>40794</v>
+        <v>40796</v>
       </c>
       <c r="B23" s="9">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9">
         <v>7</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>40795</v>
+        <v>40797</v>
       </c>
       <c r="B24" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>40796</v>
+        <v>40804</v>
       </c>
       <c r="B25" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>40797</v>
+        <v>40805</v>
       </c>
       <c r="B26" s="9">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="C26" s="9">
-        <v>336</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>40804</v>
+        <v>40806</v>
       </c>
       <c r="B27" s="9">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C27" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>40805</v>
+        <v>40807</v>
       </c>
       <c r="B28" s="9">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="C28" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>40806</v>
+        <v>40808</v>
       </c>
       <c r="B29" s="9">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C29" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>40807</v>
+        <v>40809</v>
       </c>
       <c r="B30" s="9">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C30" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>40808</v>
+        <v>40810</v>
       </c>
       <c r="B31" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C31" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>40809</v>
+        <v>40811</v>
       </c>
       <c r="B32" s="9">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="C32" s="9">
-        <v>4</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>40810</v>
+        <v>40812</v>
       </c>
       <c r="B33" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C33" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>40811</v>
+      <c r="A34" s="8" t="s">
+        <v>1354</v>
       </c>
       <c r="B34" s="9">
-        <v>202</v>
+        <v>2741</v>
       </c>
       <c r="C34" s="9">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>40812</v>
-      </c>
-      <c r="B35" s="9">
-        <v>21</v>
-      </c>
-      <c r="C35" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B36" s="9">
-        <v>2080</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3129</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
@@ -76716,22 +76694,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
@@ -81283,7 +81263,7 @@
       <c r="K97" s="10">
         <v>0</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="17">
         <v>0.11316406</v>
       </c>
       <c r="M97" s="17">
@@ -81325,7 +81305,7 @@
         <v>3995</v>
       </c>
       <c r="K98" s="10"/>
-      <c r="L98" s="17">
+      <c r="L98" s="18">
         <v>3995</v>
       </c>
       <c r="M98" s="17">
@@ -81367,7 +81347,7 @@
         <v>3533</v>
       </c>
       <c r="K99" s="10"/>
-      <c r="L99" s="17">
+      <c r="L99" s="18">
         <v>3533</v>
       </c>
       <c r="M99" s="17">
@@ -81409,7 +81389,7 @@
         <v>3016</v>
       </c>
       <c r="K100" s="10"/>
-      <c r="L100" s="17">
+      <c r="L100" s="18">
         <v>3016</v>
       </c>
       <c r="M100" s="17">
@@ -81451,7 +81431,7 @@
         <v>2760</v>
       </c>
       <c r="K101" s="10"/>
-      <c r="L101" s="17">
+      <c r="L101" s="18">
         <v>2760</v>
       </c>
       <c r="M101" s="17">
@@ -81493,7 +81473,7 @@
         <v>2632</v>
       </c>
       <c r="K102" s="10"/>
-      <c r="L102" s="17">
+      <c r="L102" s="18">
         <v>2632</v>
       </c>
       <c r="M102" s="17">
@@ -81535,7 +81515,7 @@
         <v>2563</v>
       </c>
       <c r="K103" s="10"/>
-      <c r="L103" s="17">
+      <c r="L103" s="18">
         <v>2563</v>
       </c>
       <c r="M103" s="17">
@@ -81577,7 +81557,7 @@
         <v>2002</v>
       </c>
       <c r="K104" s="10"/>
-      <c r="L104" s="17">
+      <c r="L104" s="18">
         <v>2002</v>
       </c>
       <c r="M104" s="17">
@@ -81619,7 +81599,7 @@
         <v>1922</v>
       </c>
       <c r="K105" s="10"/>
-      <c r="L105" s="17">
+      <c r="L105" s="18">
         <v>1922</v>
       </c>
       <c r="M105" s="17">
@@ -81661,7 +81641,7 @@
         <v>1878</v>
       </c>
       <c r="K106" s="10"/>
-      <c r="L106" s="17">
+      <c r="L106" s="18">
         <v>1878</v>
       </c>
       <c r="M106" s="17">
@@ -81703,7 +81683,7 @@
         <v>1867</v>
       </c>
       <c r="K107" s="10"/>
-      <c r="L107" s="17">
+      <c r="L107" s="18">
         <v>1867</v>
       </c>
       <c r="M107" s="17">
@@ -81745,7 +81725,7 @@
         <v>1598</v>
       </c>
       <c r="K108" s="10"/>
-      <c r="L108" s="17">
+      <c r="L108" s="18">
         <v>1598</v>
       </c>
       <c r="M108" s="17">
@@ -81787,7 +81767,7 @@
         <v>1202</v>
       </c>
       <c r="K109" s="10"/>
-      <c r="L109" s="17">
+      <c r="L109" s="18">
         <v>1202</v>
       </c>
       <c r="M109" s="17">
@@ -81829,7 +81809,7 @@
         <v>711</v>
       </c>
       <c r="K110" s="10"/>
-      <c r="L110" s="17">
+      <c r="L110" s="18">
         <v>711</v>
       </c>
       <c r="M110" s="17">
@@ -81871,7 +81851,7 @@
         <v>510</v>
       </c>
       <c r="K111" s="10"/>
-      <c r="L111" s="17">
+      <c r="L111" s="18">
         <v>510</v>
       </c>
       <c r="M111" s="17">
@@ -81913,7 +81893,7 @@
         <v>375</v>
       </c>
       <c r="K112" s="10"/>
-      <c r="L112" s="17">
+      <c r="L112" s="18">
         <v>375</v>
       </c>
       <c r="M112" s="17">
@@ -81955,7 +81935,7 @@
         <v>341</v>
       </c>
       <c r="K113" s="10"/>
-      <c r="L113" s="17">
+      <c r="L113" s="18">
         <v>341</v>
       </c>
       <c r="M113" s="17">
@@ -81997,7 +81977,7 @@
         <v>304</v>
       </c>
       <c r="K114" s="10"/>
-      <c r="L114" s="17">
+      <c r="L114" s="18">
         <v>304</v>
       </c>
       <c r="M114" s="17">
@@ -82039,7 +82019,7 @@
         <v>268</v>
       </c>
       <c r="K115" s="10"/>
-      <c r="L115" s="17">
+      <c r="L115" s="18">
         <v>268</v>
       </c>
       <c r="M115" s="17">
@@ -82081,7 +82061,7 @@
         <v>161</v>
       </c>
       <c r="K116" s="10"/>
-      <c r="L116" s="17">
+      <c r="L116" s="18">
         <v>161</v>
       </c>
       <c r="M116" s="17">
@@ -82123,7 +82103,7 @@
         <v>155</v>
       </c>
       <c r="K117" s="10"/>
-      <c r="L117" s="17">
+      <c r="L117" s="18">
         <v>155</v>
       </c>
       <c r="M117" s="17">
@@ -82165,7 +82145,7 @@
         <v>125</v>
       </c>
       <c r="K118" s="10"/>
-      <c r="L118" s="17">
+      <c r="L118" s="18">
         <v>125</v>
       </c>
       <c r="M118" s="17">
@@ -82207,7 +82187,7 @@
         <v>50</v>
       </c>
       <c r="K119" s="10"/>
-      <c r="L119" s="17">
+      <c r="L119" s="18">
         <v>50</v>
       </c>
       <c r="M119" s="17">
@@ -82248,21 +82228,249 @@
       <c r="I120" s="10">
         <v>10</v>
       </c>
-      <c r="K120" s="10"/>
-      <c r="L120" s="17">
+      <c r="L120" s="10">
         <v>10</v>
       </c>
       <c r="M120" s="17">
         <v>23</v>
       </c>
-      <c r="N120" s="5">
+      <c r="N120" s="17">
         <v>0.14699999999999999</v>
       </c>
       <c r="O120" s="17">
         <v>10</v>
       </c>
     </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>20110919</v>
+      </c>
+      <c r="B121">
+        <v>20110925</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="10">
+        <v>54830</v>
+      </c>
+      <c r="L121" s="10">
+        <v>54830</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>20110919</v>
+      </c>
+      <c r="B122">
+        <v>20110925</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="10">
+        <v>30421</v>
+      </c>
+      <c r="L122" s="10">
+        <v>30421</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>0.2</v>
+      </c>
+      <c r="O122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>20110919</v>
+      </c>
+      <c r="B123">
+        <v>20110925</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="10">
+        <v>19108</v>
+      </c>
+      <c r="L123" s="10">
+        <v>19108</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>20110919</v>
+      </c>
+      <c r="B124">
+        <v>20110925</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I124" s="10">
+        <v>18867</v>
+      </c>
+      <c r="L124" s="10">
+        <v>18867</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>20110919</v>
+      </c>
+      <c r="B125">
+        <v>20110925</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I125" s="10">
+        <v>16562</v>
+      </c>
+      <c r="L125" s="10">
+        <v>16562</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="O125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>20110919</v>
+      </c>
+      <c r="B126">
+        <v>20110925</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" s="10">
+        <v>10459</v>
+      </c>
+      <c r="L126" s="10">
+        <v>10459</v>
+      </c>
+      <c r="M126">
+        <v>6</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O126"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -82287,48 +82495,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="35" t="s">
         <v>1399</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="35" t="s">
         <v>1398</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>1384</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>1385</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>1386</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>1387</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>1388</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>1389</v>
       </c>
-      <c r="Q1" s="23"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="22" t="s">
         <v>1392</v>
       </c>
@@ -82373,799 +82581,799 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>5</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>10</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>1</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>1</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>4</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>3</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>7</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <v>3</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>9</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
         <v>9</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>9</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>2</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>4</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>3</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>2</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>1</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>5</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>8</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26">
+      <c r="N4" s="25"/>
+      <c r="O4" s="25">
         <v>7</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>20</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25">
         <v>10</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>7</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>14</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>4</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>4</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>2</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>5</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <v>6</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>1390</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>21</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <v>8</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <v>6</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>6</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>13</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25">
         <v>10</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>7</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25">
         <v>6</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>8</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>5</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>4</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>7</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>3</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
         <v>6</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>7</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>5</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>1</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="25">
         <v>1</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>6</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="25">
         <v>8</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>8</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>15</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25">
         <v>8</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25">
         <v>10</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>6</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25">
         <v>8</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26">
+      <c r="L10" s="25"/>
+      <c r="M10" s="25">
         <v>6</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>9</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>17</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25">
         <v>9</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>10</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>11</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25">
         <v>4</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>9</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25">
         <v>9</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="25">
         <v>6</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26">
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>11</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>7</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>9</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>5</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>6</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>5</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>3</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>2</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>5</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <v>9</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>10</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25">
         <v>4</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="25">
         <v>4</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>22</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>7</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
         <v>10</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>13</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>10</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>14</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>3</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25">
         <v>7</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25">
         <v>8</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25">
         <v>2</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <v>3</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="25">
         <v>2</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>7</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="25">
         <v>2</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>15</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>2</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>3</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>3</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>5</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>6</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>5</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>7</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>3</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>4</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>4</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26">
+      <c r="M17" s="25"/>
+      <c r="N17" s="25">
         <v>1</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>3</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>3</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>16</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25">
         <v>4</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <v>3</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="25">
         <v>1</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <v>1</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>17</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>6</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>5</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>9</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>9</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26">
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
         <v>2</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="25">
         <v>10</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <v>2</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="25">
         <v>9</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="25">
         <v>4</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>1391</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>18</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>8</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>19</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>23</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>20</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>12</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25">
         <v>7</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>21</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>19</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25">
         <v>10</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>22</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>18</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>4</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>23</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25">
         <v>6</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
@@ -83246,7 +83454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -83258,481 +83466,481 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="33"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="43" t="s">
         <v>1410</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="43" t="s">
         <v>1409</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="39"/>
       <c r="L1" s="1" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="30" t="s">
         <v>1408</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="30" t="s">
         <v>1408</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="26" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="40" t="s">
         <v>1415</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>1400</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="31">
         <v>0.38729269999999999</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="31">
         <v>0.20083039999999999</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="33">
         <v>0.13083529999999999</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="33">
         <v>-9.3704079999999995E-2</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="31">
         <v>-0.36878529999999998</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="31">
         <v>-0.1798932</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="31">
         <v>-0.17665539999999999</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="31">
         <v>-1.7683709999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="27" t="s">
         <v>1401</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="31">
         <v>0.46724959999999999</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="31">
         <v>0.51494870000000004</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="33">
         <v>-0.15617010000000001</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="33">
         <v>-0.33476489999999998</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="31">
         <v>0.52341150000000003</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="31">
         <v>-0.1193733</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="32">
         <v>-0.65425599999999995</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="31">
         <v>-0.1125881</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="27" t="s">
         <v>1402</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="31">
         <v>0.49517670000000003</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32">
         <v>0.55689699999999998</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="33">
         <v>-0.43817020000000001</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="33">
         <v>-0.26724680000000001</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="32">
         <v>0.6176528</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="31">
         <v>0.35169810000000001</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="32">
         <v>-0.60876949999999996</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="31">
         <v>-0.44206649999999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="27" t="s">
         <v>1403</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="31">
         <v>-0.1031984</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="31">
         <v>0.34521790000000002</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="33">
         <v>-3.8605309999999997E-2</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="33">
         <v>-0.3534139</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="31">
         <v>0.37263770000000002</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="34">
         <v>0.58123239999999998</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="31">
         <v>-0.42540660000000002</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="34">
         <v>-0.53544910000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="27" t="s">
         <v>1404</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="31">
         <v>0.23028970000000001</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="31">
         <v>-0.34424830000000001</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="33">
         <v>-0.3719539</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="33">
         <v>0.38539509999999999</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="31">
         <v>0.29659180000000002</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="31">
         <v>-0.32730900000000002</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="31">
         <v>-0.23141800000000001</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="31">
         <v>0.31091459999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="27" t="s">
         <v>1405</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="31">
         <v>-9.4523220000000008E-3</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="31">
         <v>-0.46670289999999998</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="33">
         <v>-9.4719049999999999E-2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="33">
         <v>0.28953509999999999</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="31">
         <v>6.2813620000000001E-2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="31">
         <v>-0.66421509999999995</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="31">
         <v>4.0895130000000002E-2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="31">
         <v>0.77873009999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="27" t="s">
         <v>1406</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="31">
         <v>-0.1364998</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="31">
         <v>-0.23444980000000001</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="33">
         <v>-0.12531200000000001</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="33">
         <v>-5.2414240000000001E-2</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="31">
         <v>-0.4638063</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="31">
         <v>0.32732679999999997</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="31">
         <v>0.39282790000000001</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="31">
         <v>-4.4367829999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="38" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="43" t="s">
         <v>1411</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="30" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="40" t="s">
         <v>1412</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>1400</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="33">
         <v>4.7619050000000003E-2</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="33">
         <v>0.14285709999999999</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="31">
         <v>-0.5</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="31">
         <v>-0.14285709999999999</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="31">
         <v>0.44581549999999998</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="31">
         <v>0.14285709999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="27" t="s">
         <v>1401</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="33">
         <v>-7.1428569999999997E-2</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="33">
         <v>-0.2</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="31">
         <v>0.57142859999999995</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="31">
         <v>-6.6666669999999997E-2</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="32">
         <v>-0.66269869999999997</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="31">
         <v>6.6666669999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="27" t="s">
         <v>1402</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="33">
         <v>-0.13333329999999999</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="33">
         <v>-0.13939389999999999</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="32">
         <v>0.6</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="31">
         <v>0.40606059999999999</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="32">
         <v>-0.63598880000000002</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="31">
         <v>-0.40606059999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="27" t="s">
         <v>1403</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="33">
         <v>0.28571429999999998</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="33">
         <v>-0.3</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="31">
         <v>0.38095240000000002</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="34">
         <v>0.51666670000000003</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="31">
         <v>-0.38095240000000002</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="34">
         <v>-0.54393780000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="27" t="s">
         <v>1404</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="33">
         <v>-0.47878789999999999</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="33">
         <v>0.3333333</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="31">
         <v>0.3090909</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="31">
         <v>-0.36666670000000001</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="31">
         <v>-0.26747840000000001</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="31">
         <v>0.31496489999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="27" t="s">
         <v>1405</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="33">
         <v>-0.46862330000000002</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="33">
         <v>0.360375</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="31">
         <v>0.2</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="31">
         <v>-0.64285709999999996</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="31">
         <v>-0.2</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="31">
         <v>0.64285709999999996</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="27" t="s">
         <v>1406</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="33">
         <v>-0.3077935</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="33">
         <v>-0.5</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="31">
         <v>-0.4</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="31">
         <v>0.5</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="31">
         <v>0.4</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="31">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/poc/social-buzz/doc/분석결과_20110926.xlsx
+++ b/poc/social-buzz/doc/분석결과_20110926.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="18315" windowHeight="7980" tabRatio="754" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="18315" windowHeight="7980" tabRatio="754" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="회귀분석" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="1429">
   <si>
     <t>program_id</t>
   </si>
@@ -4379,6 +4379,14 @@
   </si>
   <si>
     <t>60 MINUTES</t>
+  </si>
+  <si>
+    <t>포스팅+미투건수 &lt;-&gt; 시청률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스팅+미투건수 &lt;-&gt; 시청률순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4389,7 +4397,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4446,6 +4454,14 @@
       <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4634,7 +4650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4749,6 +4765,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4764,11 +4786,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4910,11 +4938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114240512"/>
-        <c:axId val="114250496"/>
+        <c:axId val="110832640"/>
+        <c:axId val="116777728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114240512"/>
+        <c:axId val="110832640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,7 +4951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114250496"/>
+        <c:crossAx val="116777728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4931,7 +4959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114250496"/>
+        <c:axId val="116777728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,14 +4970,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114240512"/>
+        <c:crossAx val="110832640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5461,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115739648"/>
-        <c:axId val="115761920"/>
+        <c:axId val="128084608"/>
+        <c:axId val="128086400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115739648"/>
+        <c:axId val="128084608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5474,7 +5501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115761920"/>
+        <c:crossAx val="128086400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5482,7 +5509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115761920"/>
+        <c:axId val="128086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5493,14 +5520,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115739648"/>
+        <c:crossAx val="128084608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -76696,7 +76722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -82484,7 +82510,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J16"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -83452,42 +83478,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="12" hidden="1" customWidth="1"/>
-    <col min="7" max="12" width="12.875" customWidth="1"/>
+    <col min="7" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="28"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="38" t="s">
         <v>1409</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="40" t="s">
         <v>1411</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="40" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="P1" s="1" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
         <v>1407</v>
@@ -83513,9 +83552,21 @@
       <c r="J2" s="26" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="K2" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>1415</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -83545,16 +83596,28 @@
       <c r="J3" s="31">
         <v>-1.7683709999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="K3" s="33">
+        <v>0.75294320000000003</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0.13808480000000001</v>
+      </c>
+      <c r="M3" s="33">
+        <v>-0.26395030000000003</v>
+      </c>
+      <c r="N3" s="33">
+        <v>-0.1038208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
       <c r="B4" s="27" t="s">
         <v>1401</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="45">
         <v>0.46724959999999999</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="45">
         <v>0.51494870000000004</v>
       </c>
       <c r="E4" s="33">
@@ -83563,7 +83626,7 @@
       <c r="F4" s="33">
         <v>-0.33476489999999998</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="45">
         <v>0.52341150000000003</v>
       </c>
       <c r="H4" s="31">
@@ -83575,16 +83638,28 @@
       <c r="J4" s="31">
         <v>-0.1125881</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="K4" s="46">
+        <v>-0.77009349999999999</v>
+      </c>
+      <c r="L4" s="33">
+        <v>-6.0394349999999999E-2</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.87543680000000001</v>
+      </c>
+      <c r="N4" s="48">
+        <v>0.30810789999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
       <c r="B5" s="27" t="s">
         <v>1402</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="45">
         <v>0.49517670000000003</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="46">
         <v>0.55689699999999998</v>
       </c>
       <c r="E5" s="33">
@@ -83593,10 +83668,10 @@
       <c r="F5" s="33">
         <v>-0.26724680000000001</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="46">
         <v>0.6176528</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="45">
         <v>0.35169810000000001</v>
       </c>
       <c r="I5" s="32">
@@ -83605,9 +83680,21 @@
       <c r="J5" s="31">
         <v>-0.44206649999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="K5" s="46">
+        <v>-0.62201510000000004</v>
+      </c>
+      <c r="L5" s="48">
+        <v>-0.53739060000000005</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.68171440000000005</v>
+      </c>
+      <c r="N5" s="46">
+        <v>0.65202919999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
       <c r="B6" s="27" t="s">
         <v>1403</v>
       </c>
@@ -83626,7 +83713,7 @@
       <c r="G6" s="31">
         <v>0.37263770000000002</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="47">
         <v>0.58123239999999998</v>
       </c>
       <c r="I6" s="31">
@@ -83635,9 +83722,21 @@
       <c r="J6" s="34">
         <v>-0.53544910000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="K6" s="33">
+        <v>-0.59445340000000002</v>
+      </c>
+      <c r="L6" s="48">
+        <v>-0.43749660000000001</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0.63971180000000005</v>
+      </c>
+      <c r="N6" s="48">
+        <v>0.3680659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
       <c r="B7" s="27" t="s">
         <v>1404</v>
       </c>
@@ -83665,9 +83764,21 @@
       <c r="J7" s="31">
         <v>0.31091459999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="K7" s="33">
+        <v>-3.3216429999999998E-2</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0.20930689999999999</v>
+      </c>
+      <c r="M7" s="33">
+        <v>-6.0439229999999997E-2</v>
+      </c>
+      <c r="N7" s="33">
+        <v>-0.35242299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
       <c r="B8" s="27" t="s">
         <v>1405</v>
       </c>
@@ -83695,9 +83806,21 @@
       <c r="J8" s="31">
         <v>0.77873009999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="K8" s="33">
+        <v>0.17574310000000001</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0.82514410000000005</v>
+      </c>
+      <c r="M8" s="33">
+        <v>-0.19049340000000001</v>
+      </c>
+      <c r="N8" s="33">
+        <v>-0.85181709999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
       <c r="B9" s="27" t="s">
         <v>1406</v>
       </c>
@@ -83725,22 +83848,42 @@
       <c r="J9" s="31">
         <v>-4.4367829999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E11" s="38" t="s">
+      <c r="K9" s="33">
+        <v>0.6590433</v>
+      </c>
+      <c r="L9" s="33">
+        <v>-5.2414240000000001E-2</v>
+      </c>
+      <c r="M9" s="33">
+        <v>-0.46983459999999999</v>
+      </c>
+      <c r="N9" s="33">
+        <v>-0.23444980000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E11" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="38" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="40" t="s">
         <v>1409</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="43" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="39"/>
+      <c r="K11" s="40" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E12" s="26" t="s">
         <v>1407</v>
       </c>
@@ -83759,9 +83902,21 @@
       <c r="J12" s="30" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="K12" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>1412</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -83785,9 +83940,13 @@
       <c r="J13" s="31">
         <v>0.14285709999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
       <c r="B14" s="27" t="s">
         <v>1401</v>
       </c>
@@ -83809,9 +83968,13 @@
       <c r="J14" s="31">
         <v>6.6666669999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
       <c r="B15" s="27" t="s">
         <v>1402</v>
       </c>
@@ -83833,9 +83996,13 @@
       <c r="J15" s="31">
         <v>-0.40606059999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
       <c r="B16" s="27" t="s">
         <v>1403</v>
       </c>
@@ -83857,9 +84024,13 @@
       <c r="J16" s="34">
         <v>-0.54393780000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
       <c r="B17" s="27" t="s">
         <v>1404</v>
       </c>
@@ -83881,9 +84052,13 @@
       <c r="J17" s="31">
         <v>0.31496489999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
       <c r="B18" s="27" t="s">
         <v>1405</v>
       </c>
@@ -83905,9 +84080,13 @@
       <c r="J18" s="31">
         <v>0.64285709999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
       <c r="B19" s="27" t="s">
         <v>1406</v>
       </c>
@@ -83929,18 +84108,26 @@
       <c r="J19" s="31">
         <v>-0.5</v>
       </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
